--- a/【小轮子】/【20180803】/sun_week_old.xlsx
+++ b/【小轮子】/【20180803】/sun_week_old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\【20180803】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6746A802-CD8C-40F9-A746-5D79259D7852}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E906A-FDFD-4C6F-B8BF-5EC02BBE30BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6015" xr2:uid="{597CA01C-B475-443C-8C6C-65B033F6752E}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7817029-14C9-4243-AA74-424CD65A7911}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E152"/>
+      <selection sqref="A1:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -3040,6 +3040,23 @@
         <v>0</v>
       </c>
       <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>0</v>
       </c>
     </row>
